--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.48028791740255</v>
+        <v>109.6617721623487</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.535609870893</v>
+        <v>150.0440746084049</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.4592288586922</v>
+        <v>135.7240787160009</v>
       </c>
       <c r="AD2" t="n">
-        <v>92480.28791740254</v>
+        <v>109661.7721623487</v>
       </c>
       <c r="AE2" t="n">
-        <v>126535.6098708929</v>
+        <v>150044.0746084049</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.778811692893131e-06</v>
+        <v>9.772771588333721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.483333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>114459.2288586922</v>
+        <v>135724.0787160009</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.30643611169469</v>
+        <v>61.48783084808983</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.62202055000961</v>
+        <v>84.13036281797319</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.83633999226932</v>
+        <v>76.10107906835154</v>
       </c>
       <c r="AD3" t="n">
-        <v>44306.4361116947</v>
+        <v>61487.83084808983</v>
       </c>
       <c r="AE3" t="n">
-        <v>60622.02055000961</v>
+        <v>84130.36281797319</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093491314809429e-05</v>
+        <v>1.576447515817983e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.779166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>54836.33999226932</v>
+        <v>76101.07906835154</v>
       </c>
     </row>
   </sheetData>
@@ -2055,28 +2055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.33023988658594</v>
+        <v>76.99449479599957</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.54649579513544</v>
+        <v>105.3472645372243</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.66837409120161</v>
+        <v>95.29306946563266</v>
       </c>
       <c r="AD2" t="n">
-        <v>60330.23988658594</v>
+        <v>76994.49479599958</v>
       </c>
       <c r="AE2" t="n">
-        <v>82546.49579513544</v>
+        <v>105347.2645372243</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.15060431574686e-06</v>
+        <v>1.339614048210097e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.435416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>74668.37409120161</v>
+        <v>95293.06946563265</v>
       </c>
     </row>
     <row r="3">
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.91571674025489</v>
+        <v>60.6652229956891</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.08742106868382</v>
+        <v>83.00483446342191</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.35276193512601</v>
+        <v>75.08296956026931</v>
       </c>
       <c r="AD3" t="n">
-        <v>43915.71674025489</v>
+        <v>60665.2229956891</v>
       </c>
       <c r="AE3" t="n">
-        <v>60087.42106868382</v>
+        <v>83004.83446342191</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.08230487698008e-05</v>
+        <v>1.584453624722686e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.904166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>54352.76193512601</v>
+        <v>75082.96956026931</v>
       </c>
     </row>
   </sheetData>
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.67198478691446</v>
+        <v>67.20656225539395</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.69988919251432</v>
+        <v>91.95498342206653</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.95239099591409</v>
+        <v>83.17892886391671</v>
       </c>
       <c r="AD2" t="n">
-        <v>51671.98478691446</v>
+        <v>67206.56225539395</v>
       </c>
       <c r="AE2" t="n">
-        <v>70699.88919251433</v>
+        <v>91954.98342206654</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.895665725234011e-06</v>
+        <v>1.53098163278041e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.545833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>63952.39099591409</v>
+        <v>83178.92886391671</v>
       </c>
     </row>
   </sheetData>
@@ -2755,28 +2755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.10326729659676</v>
+        <v>59.12482231689228</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.92174483221713</v>
+        <v>80.89719029701143</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.24851164123093</v>
+        <v>73.17647599500322</v>
       </c>
       <c r="AD2" t="n">
-        <v>51103.26729659676</v>
+        <v>59124.82231689229</v>
       </c>
       <c r="AE2" t="n">
-        <v>69921.74483221713</v>
+        <v>80897.19029701143</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.052885742290163e-05</v>
+        <v>1.591219871778995e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>63248.51164123093</v>
+        <v>73176.47599500322</v>
       </c>
     </row>
   </sheetData>
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.44013236539045</v>
+        <v>76.47250429365198</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.0650996496354</v>
+        <v>104.633054103317</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.04204452520246</v>
+        <v>94.6470222731366</v>
       </c>
       <c r="AD2" t="n">
-        <v>61440.13236539045</v>
+        <v>76472.50429365197</v>
       </c>
       <c r="AE2" t="n">
-        <v>84065.09964963541</v>
+        <v>104633.054103317</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.975547081907497e-06</v>
+        <v>1.418574436970875e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.060416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>76042.04452520245</v>
+        <v>94647.02227313659</v>
       </c>
     </row>
   </sheetData>
@@ -3349,28 +3349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.92704268026078</v>
+        <v>81.87540798514121</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.8360441740648</v>
+        <v>112.0255452932971</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.35765680028452</v>
+        <v>101.333984479374</v>
       </c>
       <c r="AD2" t="n">
-        <v>64927.04268026078</v>
+        <v>81875.40798514121</v>
       </c>
       <c r="AE2" t="n">
-        <v>88836.04417406479</v>
+        <v>112025.5452932971</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.516080984960741e-06</v>
+        <v>1.24154777032085e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.658333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>80357.65680028452</v>
+        <v>101333.9844793739</v>
       </c>
     </row>
     <row r="3">
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.17747958834801</v>
+        <v>61.04050403865681</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.44557654560647</v>
+        <v>83.5183105426412</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.67673555600565</v>
+        <v>75.5474402031563</v>
       </c>
       <c r="AD3" t="n">
-        <v>44177.479588348</v>
+        <v>61040.50403865681</v>
       </c>
       <c r="AE3" t="n">
-        <v>60445.57654560647</v>
+        <v>83518.31054264121</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.081286986618942e-05</v>
+        <v>1.576393472166924e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.88125</v>
       </c>
       <c r="AH3" t="n">
-        <v>54676.73555600565</v>
+        <v>75547.44020315629</v>
       </c>
     </row>
   </sheetData>
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.54828804217875</v>
+        <v>78.50435285883775</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.94957125188017</v>
+        <v>107.4131189490351</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.65122620611123</v>
+        <v>97.16176163182577</v>
       </c>
       <c r="AD2" t="n">
-        <v>63548.28804217875</v>
+        <v>78504.35285883775</v>
       </c>
       <c r="AE2" t="n">
-        <v>86949.57125188017</v>
+        <v>107413.1189490351</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.275443891795033e-06</v>
+        <v>1.325920499721001e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.50625</v>
       </c>
       <c r="AH2" t="n">
-        <v>78651.22620611123</v>
+        <v>97161.76163182576</v>
       </c>
     </row>
   </sheetData>
@@ -4049,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.37542390835611</v>
+        <v>60.60872623887995</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.66236563201409</v>
+        <v>82.92753310829465</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.82301003487247</v>
+        <v>75.01304573798225</v>
       </c>
       <c r="AD2" t="n">
-        <v>52375.42390835611</v>
+        <v>60608.72623887994</v>
       </c>
       <c r="AE2" t="n">
-        <v>71662.36563201409</v>
+        <v>82927.53310829465</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.055292540544231e-05</v>
+        <v>1.566943949808578e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.06875</v>
       </c>
       <c r="AH2" t="n">
-        <v>64823.01003487247</v>
+        <v>75013.04573798225</v>
       </c>
     </row>
     <row r="3">
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.1698027854157</v>
+        <v>59.55088757478967</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.06682868827216</v>
+        <v>81.4801515795389</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.42957345909011</v>
+        <v>73.70380027091774</v>
       </c>
       <c r="AD3" t="n">
-        <v>43169.8027854157</v>
+        <v>59550.88757478967</v>
       </c>
       <c r="AE3" t="n">
-        <v>59066.82868827216</v>
+        <v>81480.1515795389</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.081492542471724e-05</v>
+        <v>1.605846844435396e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.995833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>53429.57345909011</v>
+        <v>73703.80027091774</v>
       </c>
     </row>
   </sheetData>
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.7736245705243</v>
+        <v>65.13222020072193</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.68017781290851</v>
+        <v>89.11677710935295</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.26649066727668</v>
+        <v>80.61159697824002</v>
       </c>
       <c r="AD2" t="n">
-        <v>56773.6245705243</v>
+        <v>65132.22020072193</v>
       </c>
       <c r="AE2" t="n">
-        <v>77680.17781290851</v>
+        <v>89116.77710935296</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.73280660698539e-06</v>
+        <v>1.431153227618575e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.260416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>70266.49066727668</v>
+        <v>80611.59697824002</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.48467170375264</v>
+        <v>60.1163430924742</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.49764623337684</v>
+        <v>82.25383276497134</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.81927438234636</v>
+        <v>74.40364240988112</v>
       </c>
       <c r="AD3" t="n">
-        <v>43484.67170375264</v>
+        <v>60116.3430924742</v>
       </c>
       <c r="AE3" t="n">
-        <v>59497.64623337684</v>
+        <v>82253.83276497133</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.087435657812324e-05</v>
+        <v>1.599011584581023e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.91875</v>
       </c>
       <c r="AH3" t="n">
-        <v>53819.27438234637</v>
+        <v>74403.64240988111</v>
       </c>
     </row>
   </sheetData>
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.8697472299181</v>
+        <v>101.9484863005557</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.1225323489231</v>
+        <v>139.4904166061489</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.0399608405697</v>
+        <v>126.1776470213248</v>
       </c>
       <c r="AD2" t="n">
-        <v>84869.74722991811</v>
+        <v>101948.4863005557</v>
       </c>
       <c r="AE2" t="n">
-        <v>116122.5323489231</v>
+        <v>139490.4166061489</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.349737680568977e-06</v>
+        <v>1.063339840745024e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.16875</v>
       </c>
       <c r="AH2" t="n">
-        <v>105039.9608405697</v>
+        <v>126177.6470213248</v>
       </c>
     </row>
     <row r="3">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.31484487650646</v>
+        <v>61.39349443859295</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.63352579299357</v>
+        <v>84.00128758067096</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.84674719101061</v>
+        <v>75.98432259053918</v>
       </c>
       <c r="AD3" t="n">
-        <v>44314.84487650645</v>
+        <v>61393.49443859296</v>
       </c>
       <c r="AE3" t="n">
-        <v>60633.52579299358</v>
+        <v>84001.28758067096</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.088630540065629e-05</v>
+        <v>1.575000735283305e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.814583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>54846.74719101061</v>
+        <v>75984.32259053917</v>
       </c>
     </row>
   </sheetData>
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.28243370086445</v>
+        <v>59.37833244261432</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.16688821079997</v>
+        <v>81.24405403510156</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.47025887982278</v>
+        <v>73.49023554475643</v>
       </c>
       <c r="AD2" t="n">
-        <v>51282.43370086445</v>
+        <v>59378.33244261432</v>
       </c>
       <c r="AE2" t="n">
-        <v>70166.88821079997</v>
+        <v>81244.05403510155</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060994199483122e-05</v>
+        <v>1.593278664943986e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.122916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>63470.25887982278</v>
+        <v>73490.23554475643</v>
       </c>
     </row>
     <row r="3">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.1833778857639</v>
+        <v>59.27927662751377</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.03135567454532</v>
+        <v>81.10852149884691</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.34766137860713</v>
+        <v>73.36763804354078</v>
       </c>
       <c r="AD3" t="n">
-        <v>51183.3778857639</v>
+        <v>59279.27662751377</v>
       </c>
       <c r="AE3" t="n">
-        <v>70031.35567454532</v>
+        <v>81108.52149884691</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.067023569905866e-05</v>
+        <v>1.602332877740138e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.10625</v>
       </c>
       <c r="AH3" t="n">
-        <v>63347.66137860712</v>
+        <v>73367.63804354078</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.3125498024883</v>
+        <v>66.85834158605677</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.20809438967032</v>
+        <v>91.47853253986793</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.50753239881501</v>
+        <v>82.74794978521197</v>
       </c>
       <c r="AD2" t="n">
-        <v>51312.5498024883</v>
+        <v>66858.34158605676</v>
       </c>
       <c r="AE2" t="n">
-        <v>70208.09438967032</v>
+        <v>91478.53253986793</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.017391775890887e-05</v>
+        <v>1.560421328611654e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.393749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>63507.53239881501</v>
+        <v>82747.94978521197</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.39160119932638</v>
+        <v>67.72812137950899</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.68450011521132</v>
+        <v>92.66860362524498</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.84303203405929</v>
+        <v>83.82444215647629</v>
       </c>
       <c r="AD2" t="n">
-        <v>52391.60119932638</v>
+        <v>67728.12137950899</v>
       </c>
       <c r="AE2" t="n">
-        <v>71684.50011521133</v>
+        <v>92668.60362524498</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.517500676169922e-06</v>
+        <v>1.487090707033554e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.752083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>64843.0320340593</v>
+        <v>83824.44215647629</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.24997256838269</v>
+        <v>96.95464884528427</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.9603322625111</v>
+        <v>132.6576278872904</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.13394265713688</v>
+        <v>119.9969700679128</v>
       </c>
       <c r="AD2" t="n">
-        <v>75249.97256838268</v>
+        <v>96954.64884528428</v>
       </c>
       <c r="AE2" t="n">
-        <v>102960.3322625111</v>
+        <v>132657.6278872904</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.231767129533652e-06</v>
+        <v>1.178543829110645e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AH2" t="n">
-        <v>93133.94265713688</v>
+        <v>119996.9700679128</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.13782670157292</v>
+        <v>62.43511184934505</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.07376288541595</v>
+        <v>85.42647447497825</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.0042669188277</v>
+        <v>77.27349164791659</v>
       </c>
       <c r="AD2" t="n">
-        <v>54137.82670157292</v>
+        <v>62435.11184934505</v>
       </c>
       <c r="AE2" t="n">
-        <v>74073.76288541594</v>
+        <v>85426.47447497825</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.022295131570912e-05</v>
+        <v>1.510319204191151e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.135416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67004.26691882769</v>
+        <v>77273.49164791658</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.2344472588108</v>
+        <v>59.74349768268135</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.15527810868419</v>
+        <v>81.74368922651443</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.50958139095758</v>
+        <v>73.94218625474342</v>
       </c>
       <c r="AD3" t="n">
-        <v>43234.4472588108</v>
+        <v>59743.49768268135</v>
       </c>
       <c r="AE3" t="n">
-        <v>59155.27810868419</v>
+        <v>81743.68922651443</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.086951194167594e-05</v>
+        <v>1.6058408299834e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>53509.58139095758</v>
+        <v>73942.18625474341</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.3447892266805</v>
+        <v>87.40275490809354</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.24884401298137</v>
+        <v>119.588305202613</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.06298942650717</v>
+        <v>108.1749651973473</v>
       </c>
       <c r="AD2" t="n">
-        <v>70344.7892266805</v>
+        <v>87402.75490809354</v>
       </c>
       <c r="AE2" t="n">
-        <v>96248.84401298137</v>
+        <v>119588.305202613</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.897061145941359e-06</v>
+        <v>1.146786751066222e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.9125</v>
       </c>
       <c r="AH2" t="n">
-        <v>87062.98942650718</v>
+        <v>108174.9651973473</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.49623329604129</v>
+        <v>61.46885812288273</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.88170943089332</v>
+        <v>84.10440349832729</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.07124453083721</v>
+        <v>76.0775972697385</v>
       </c>
       <c r="AD3" t="n">
-        <v>44496.23329604129</v>
+        <v>61468.85812288273</v>
       </c>
       <c r="AE3" t="n">
-        <v>60881.70943089332</v>
+        <v>84104.40349832729</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078751007532515e-05</v>
+        <v>1.566528788717085e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.8625</v>
       </c>
       <c r="AH3" t="n">
-        <v>55071.24453083721</v>
+        <v>76077.5972697385</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.89206421321947</v>
+        <v>120.2693792396919</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.7307762482317</v>
+        <v>164.5578705862148</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.7312074273864</v>
+        <v>148.8526983759339</v>
       </c>
       <c r="AD2" t="n">
-        <v>91892.06421321948</v>
+        <v>120269.3792396919</v>
       </c>
       <c r="AE2" t="n">
-        <v>125730.7762482317</v>
+        <v>164557.8705862148</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.680256063443317e-06</v>
+        <v>9.468648433546578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>113731.2074273864</v>
+        <v>148852.6983759339</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.09878172503186</v>
+        <v>59.04141220939867</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.91560747531257</v>
+        <v>80.78306490814447</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.24296002505551</v>
+        <v>73.0732425730737</v>
       </c>
       <c r="AD2" t="n">
-        <v>51098.78172503185</v>
+        <v>59041.41220939867</v>
       </c>
       <c r="AE2" t="n">
-        <v>69915.60747531257</v>
+        <v>80783.06490814447</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.038912975531714e-05</v>
+        <v>1.581128536854458e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>63242.96002505551</v>
+        <v>73073.2425730737</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.65696311408026</v>
+        <v>59.82327377566236</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.67933587703313</v>
+        <v>81.85284239640384</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.93379926001564</v>
+        <v>74.04092199929606</v>
       </c>
       <c r="AD2" t="n">
-        <v>51656.96311408025</v>
+        <v>59823.27377566237</v>
       </c>
       <c r="AE2" t="n">
-        <v>70679.33587703313</v>
+        <v>81852.84239640384</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.0631081264466e-05</v>
+        <v>1.587125490873133e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.081249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>63933.79926001564</v>
+        <v>74040.92199929606</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.25762698962024</v>
+        <v>59.42393765120236</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.13294657408079</v>
+        <v>81.30645309345149</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.43955658527469</v>
+        <v>73.54667932455511</v>
       </c>
       <c r="AD3" t="n">
-        <v>51257.62698962024</v>
+        <v>59423.93765120236</v>
       </c>
       <c r="AE3" t="n">
-        <v>70132.94657408079</v>
+        <v>81306.45309345149</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.076361995987173e-05</v>
+        <v>1.606912334447419e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.04375</v>
       </c>
       <c r="AH3" t="n">
-        <v>63439.55658527469</v>
+        <v>73546.67932455511</v>
       </c>
     </row>
   </sheetData>
